--- a/logs/2c/2cHemoresult.xlsx
+++ b/logs/2c/2cHemoresult.xlsx
@@ -447,58 +447,58 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.07506562680357075</v>
+        <v>0.02328103994796504</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.02926795130819359</v>
+        <v>-0.06201132485515971</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.1758471746922297</v>
+        <v>0.05483536340375555</v>
       </c>
       <c r="B3" t="n">
-        <v>0.09405331065784413</v>
+        <v>0.07646821791777769</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.06403538773569745</v>
+        <v>0.01644714489527688</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.1801508476545278</v>
+        <v>-0.04297431422540074</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.05135147595275299</v>
+        <v>0.1601979657762684</v>
       </c>
       <c r="B5" t="n">
-        <v>0.2490437332075872</v>
+        <v>0.1753738058469409</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.1229488192668832</v>
+        <v>-0.04883717205316224</v>
       </c>
       <c r="B6" t="n">
-        <v>0.02747789112306676</v>
+        <v>-0.04483938565520964</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.04751582638792147</v>
+        <v>0.5011471247107649</v>
       </c>
       <c r="B7" t="n">
-        <v>0.371106466273469</v>
+        <v>0.492171605091032</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.4632356891609444</v>
+        <v>0.2440913612659691</v>
       </c>
       <c r="B8" t="n">
-        <v>0.2583185987380329</v>
+        <v>0.2559863711442495</v>
       </c>
     </row>
   </sheetData>
